--- a/excel2json/excel/itemConfig.xlsx
+++ b/excel2json/excel/itemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>编号</t>
   </si>
@@ -61,10 +61,31 @@
     <t>血瓶</t>
   </si>
   <si>
+    <t>加血（HP+20）</t>
+  </si>
+  <si>
     <t>大力水</t>
   </si>
   <si>
-    <t>大力出奇迹</t>
+    <t>大力出奇迹（HP+10，攻击+5）</t>
+  </si>
+  <si>
+    <t>大血瓶</t>
+  </si>
+  <si>
+    <t>加血（HP+50）</t>
+  </si>
+  <si>
+    <t>强力水</t>
+  </si>
+  <si>
+    <t>攻击+10</t>
+  </si>
+  <si>
+    <t>防御水</t>
+  </si>
+  <si>
+    <t>防御+5</t>
   </si>
 </sst>
 </file>
@@ -72,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -86,6 +107,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -94,22 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,14 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,47 +191,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,6 +214,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,23 +237,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,31 +260,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,145 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,61 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +493,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -530,6 +536,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -538,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,16 +1053,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
@@ -1102,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1113,16 +1134,58 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/excel/itemConfig.xlsx
+++ b/excel2json/excel/itemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -25,6 +25,15 @@
     <t>描述</t>
   </si>
   <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>加血</t>
   </si>
   <si>
@@ -46,6 +55,15 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>addHp</t>
   </si>
   <si>
@@ -64,28 +82,43 @@
     <t>加血（HP+20）</t>
   </si>
   <si>
+    <t>item1000</t>
+  </si>
+  <si>
     <t>大力水</t>
   </si>
   <si>
     <t>大力出奇迹（HP+10，攻击+5）</t>
   </si>
   <si>
+    <t>item1001</t>
+  </si>
+  <si>
     <t>大血瓶</t>
   </si>
   <si>
     <t>加血（HP+50）</t>
   </si>
   <si>
+    <t>item1002</t>
+  </si>
+  <si>
     <t>强力水</t>
   </si>
   <si>
     <t>攻击+10</t>
   </si>
   <si>
+    <t>item1003</t>
+  </si>
+  <si>
     <t>防御水</t>
   </si>
   <si>
     <t>防御+5</t>
+  </si>
+  <si>
+    <t>item1004</t>
   </si>
 </sst>
 </file>
@@ -93,15 +126,75 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,16 +208,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,14 +240,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,21 +247,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,70 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,31 +293,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,73 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,55 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +487,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,21 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,41 +584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,23 +1086,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
+    <col min="4" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,100 +1125,163 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
     </row>

--- a/excel2json/excel/itemConfig.xlsx
+++ b/excel2json/excel/itemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -79,7 +79,7 @@
     <t>血瓶</t>
   </si>
   <si>
-    <t>加血（HP+20）</t>
+    <t>HP+20</t>
   </si>
   <si>
     <t>item1000</t>
@@ -88,7 +88,7 @@
     <t>大力水</t>
   </si>
   <si>
-    <t>大力出奇迹（HP+10，攻击+5）</t>
+    <t>HP+10，攻击+5</t>
   </si>
   <si>
     <t>item1001</t>
@@ -97,7 +97,7 @@
     <t>大血瓶</t>
   </si>
   <si>
-    <t>加血（HP+50）</t>
+    <t>HP+50</t>
   </si>
   <si>
     <t>item1002</t>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>item1004</t>
+  </si>
+  <si>
+    <t>长剑</t>
+  </si>
+  <si>
+    <t>装备长剑，攻击+20</t>
+  </si>
+  <si>
+    <t>item1005</t>
   </si>
 </sst>
 </file>
@@ -126,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,7 +157,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,77 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,37 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,49 +302,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,127 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +493,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,54 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,13 +1095,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="53.375" customWidth="1"/>
@@ -1285,6 +1294,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
